--- a/benchmark_scenarios.xlsx
+++ b/benchmark_scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="18540" windowWidth="24480" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="7500" windowWidth="24480" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>tp1</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>damage_disaster_tail</t>
+  </si>
+  <si>
+    <t>draws</t>
   </si>
 </sst>
 </file>
@@ -457,22 +460,22 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,437 +483,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>70</v>
-      </c>
-      <c r="D9" s="4">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="4">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>70</v>
-      </c>
-      <c r="D19" s="4">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>70</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>70</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>50</v>
-      </c>
-      <c r="D23" s="4">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>70</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>70</v>
-      </c>
-      <c r="D24" s="4">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>70</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>80</v>
-      </c>
-      <c r="D25" s="4">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>70</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>100</v>
-      </c>
-      <c r="D26" s="4">
-        <v>11</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="F2" s="4">
         <v>18</v>
       </c>
     </row>

--- a/benchmark_scenarios.xlsx
+++ b/benchmark_scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="7500" windowWidth="24480" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="5140" yWindow="3020" windowWidth="24480" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -460,11 +460,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>500000</v>
       </c>
       <c r="D2" s="1">
         <v>30</v>
@@ -512,6 +512,106 @@
         <v>11</v>
       </c>
       <c r="F2" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
         <v>18</v>
       </c>
     </row>

--- a/benchmark_scenarios.xlsx
+++ b/benchmark_scenarios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="sketch worksheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>tp1</t>
   </si>
@@ -84,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,11 +108,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -121,6 +133,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,8 +476,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>50000000</v>
+        <v>5000000</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
@@ -603,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>50000000</v>
+        <v>5000000</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
@@ -623,4 +635,195 @@
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;F: &amp;A&amp;C&amp;"Calibri,Regular"&amp;K000000CONFIDENTIAL&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <f>G2*C3/C2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <f>G3*C4/C3</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <f>G2*1.5</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <f>G3*1.5</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f>G4*1.5</f>
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.36000000000000004" right="0.36000000000000004" top="0.75000000000000011" bottom="0.6100000000000001" header="0.5" footer="0.39000000000000007"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;F: &amp;A&amp;C&amp;"Calibri,Regular"&amp;K000000CONFIDENTIAL&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/benchmark_scenarios.xlsx
+++ b/benchmark_scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="3020" windowWidth="24480" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="5280" yWindow="1760" windowWidth="24440" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,13 +76,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -120,10 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -134,8 +162,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +508,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,11 +549,11 @@
       <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>500000</v>
+      <c r="C2" s="6">
+        <v>1000000</v>
       </c>
       <c r="D2" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4">
         <v>11</v>
@@ -534,11 +569,11 @@
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>1000000</v>
+      <c r="C3" s="6">
+        <v>3000000</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4">
         <v>11</v>
@@ -554,76 +589,16 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>5000000</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4">
         <v>11</v>
       </c>
       <c r="F4" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>500000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
         <v>18</v>
       </c>
     </row>
@@ -645,7 +620,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
